--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55253.10861767647</v>
+        <v>-63558.00382533079</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11715962.26448287</v>
+        <v>11715962.26448288</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4902432507819094</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>107.0709848214567</v>
       </c>
     </row>
     <row r="12">
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>143.3193010541979</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.69870921092682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>281.6008363880921</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>177.5172016492327</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306968</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U15" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V15" t="n">
         <v>197.1263427586206</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>110.1207081981825</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>67.80121722125776</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.8426041147488</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>163.9844059346229</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>141.8752422649354</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.69870921092682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>3.758938321627217</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>230.1295436120415</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>20.73297797415473</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.8842297274031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>176.2703883121617</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>221.2992638288012</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D24" t="n">
-        <v>94.13938596491226</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E24" t="n">
         <v>93.17921052631581</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>143.3193010541979</v>
       </c>
       <c r="H25" t="n">
-        <v>56.17290916498833</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>37.18482692092214</v>
       </c>
       <c r="C26" t="n">
-        <v>13.13578160607853</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>61.87667076770177</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>34.51516921304759</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2806,7 +2806,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>156.7012890994291</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>74.97121041652196</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>31.62322353306968</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>133.2086277739022</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>164.6370419022278</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>125.7586707785715</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>181.9350240293736</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>167.8191401812167</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>34.51516921304759</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0425331022054</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>361.464905015728</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>84.43948853687787</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>134.8967801895894</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>304.6684228599267</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>213.5382021707748</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3666,10 +3666,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>55.31014313307895</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>109.800451929241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>41.27865562911101</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>361.4649050157285</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>55.49107235181526</v>
+        <v>120.0674224868812</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>94.08719556949141</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>158.6851702988639</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>64.65234145753891</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>167.1356617339842</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1578.568163960874</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.568163960874</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867025</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5071,22 +5071,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X11" t="n">
-        <v>1578.568163960874</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y11" t="n">
-        <v>1578.568163960874</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="12">
@@ -5108,16 +5108,16 @@
         <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1517.87440598441</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="C13" t="n">
-        <v>1517.87440598441</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="D13" t="n">
-        <v>1517.87440598441</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="E13" t="n">
-        <v>1517.87440598441</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="F13" t="n">
-        <v>1517.87440598441</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="G13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U13" t="n">
-        <v>2360.327577447737</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V13" t="n">
-        <v>2073.372069318168</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W13" t="n">
-        <v>1801.345664904459</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X13" t="n">
-        <v>1555.953910237872</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y13" t="n">
-        <v>1517.87440598441</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>765.4265856715607</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C14" t="n">
-        <v>765.4265856715607</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D14" t="n">
-        <v>765.4265856715607</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6518408298559</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1347.558379675995</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>1347.558379675995</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715607</v>
+        <v>1347.558379675995</v>
       </c>
     </row>
     <row r="15">
@@ -5348,13 +5348,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.0845443474321</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="C16" t="n">
-        <v>213.0845443474321</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="D16" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
@@ -5463,25 +5463,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T16" t="n">
-        <v>778.4266844282586</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U16" t="n">
-        <v>500.0400524770016</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V16" t="n">
-        <v>213.0845443474321</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="W16" t="n">
-        <v>213.0845443474321</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="X16" t="n">
-        <v>213.0845443474321</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.0845443474321</v>
+        <v>389.7915983856759</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.20655154895473</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895473</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895473</v>
+        <v>612.3500569448543</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>612.3500569448543</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>612.3500569448543</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>212.8473656243314</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5554,13 +5554,13 @@
         <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1081.54685999802</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X17" t="n">
-        <v>662.4043965773304</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y17" t="n">
-        <v>254.1182728769838</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="18">
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1517.87440598441</v>
+        <v>554.5327787731575</v>
       </c>
       <c r="C19" t="n">
-        <v>1517.87440598441</v>
+        <v>554.5327787731575</v>
       </c>
       <c r="D19" t="n">
-        <v>1517.87440598441</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E19" t="n">
-        <v>1517.87440598441</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>746.3513974921445</v>
       </c>
       <c r="T19" t="n">
-        <v>2360.327577447737</v>
+        <v>746.3513974921445</v>
       </c>
       <c r="U19" t="n">
-        <v>2360.327577447737</v>
+        <v>746.3513974921445</v>
       </c>
       <c r="V19" t="n">
-        <v>2073.372069318167</v>
+        <v>746.3513974921445</v>
       </c>
       <c r="W19" t="n">
-        <v>1801.345664904459</v>
+        <v>746.3513974921445</v>
       </c>
       <c r="X19" t="n">
-        <v>1555.953910237871</v>
+        <v>746.3513974921445</v>
       </c>
       <c r="Y19" t="n">
-        <v>1517.87440598441</v>
+        <v>746.3513974921445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>717.8031088221391</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="C20" t="n">
-        <v>279.6606360055624</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D20" t="n">
-        <v>279.6606360055624</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>279.6606360055624</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>279.6606360055624</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V20" t="n">
-        <v>1957.24425759636</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W20" t="n">
-        <v>1552.388803007393</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="X20" t="n">
-        <v>1552.388803007393</v>
+        <v>1324.558407907193</v>
       </c>
       <c r="Y20" t="n">
-        <v>1144.102679307047</v>
+        <v>1324.558407907193</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
         <v>47.20655154895473</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.20655154895473</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C22" t="n">
-        <v>47.20655154895473</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D22" t="n">
-        <v>47.20655154895473</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E22" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
         <v>47.20655154895473</v>
@@ -5937,25 +5937,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W22" t="n">
-        <v>617.6333185985729</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X22" t="n">
-        <v>372.2415639319854</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y22" t="n">
-        <v>239.0251702679419</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1578.568163960874</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C23" t="n">
-        <v>1140.425691144297</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D23" t="n">
-        <v>704.5159063187416</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E23" t="n">
-        <v>270.7411614770368</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F23" t="n">
-        <v>270.7411614770368</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867019</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W23" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X23" t="n">
-        <v>1578.568163960874</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.568163960874</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
         <v>341.0245550495863</v>
@@ -6059,13 +6059,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H24" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>611.2730910610244</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="C25" t="n">
-        <v>611.2730910610244</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="D25" t="n">
-        <v>445.3950982625471</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="E25" t="n">
-        <v>445.3950982625471</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="F25" t="n">
-        <v>268.6880442243033</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="G25" t="n">
-        <v>103.9468638368217</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895473</v>
@@ -6183,16 +6183,16 @@
         <v>611.2730910610244</v>
       </c>
       <c r="V25" t="n">
-        <v>611.2730910610244</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W25" t="n">
-        <v>611.2730910610244</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X25" t="n">
-        <v>611.2730910610244</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y25" t="n">
-        <v>611.2730910610244</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>488.3424474085132</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="C26" t="n">
-        <v>475.073981139747</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D26" t="n">
-        <v>475.073981139747</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.639935903077</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W26" t="n">
-        <v>1333.78448131411</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X26" t="n">
-        <v>914.642017893421</v>
+        <v>1326.330542644784</v>
       </c>
       <c r="Y26" t="n">
-        <v>914.642017893421</v>
+        <v>918.0444189444371</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1517.87440598441</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="C28" t="n">
-        <v>1517.87440598441</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="D28" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E28" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F28" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>1673.580170254151</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L28" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M28" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N28" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>745.233184516516</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270316</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="W28" t="n">
-        <v>1517.87440598441</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="X28" t="n">
-        <v>1517.87440598441</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="Y28" t="n">
-        <v>1517.87440598441</v>
+        <v>682.7314968723728</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1941.185114027048</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C29" t="n">
-        <v>1503.042641210471</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D29" t="n">
-        <v>1067.132856384916</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>633.3581115432107</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>205.4906819524185</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G29" t="n">
         <v>47.20655154895474</v>
@@ -6460,16 +6460,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.185114027048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y29" t="n">
-        <v>1941.185114027048</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="30">
@@ -6521,19 +6521,19 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235846</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
         <v>47.20655154895474</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2215.901038951972</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="C31" t="n">
-        <v>2081.346869483384</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="D31" t="n">
-        <v>1915.468876684906</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E31" t="n">
-        <v>1745.710872935644</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F31" t="n">
-        <v>1745.710872935644</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G31" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H31" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>1673.580170254151</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L31" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M31" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N31" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="T31" t="n">
-        <v>2215.901038951972</v>
+        <v>723.3596806867988</v>
       </c>
       <c r="U31" t="n">
-        <v>2215.901038951972</v>
+        <v>723.3596806867988</v>
       </c>
       <c r="V31" t="n">
-        <v>2215.901038951972</v>
+        <v>723.3596806867988</v>
       </c>
       <c r="W31" t="n">
-        <v>2215.901038951972</v>
+        <v>451.3332762730903</v>
       </c>
       <c r="X31" t="n">
-        <v>2215.901038951972</v>
+        <v>451.3332762730903</v>
       </c>
       <c r="Y31" t="n">
-        <v>2215.901038951972</v>
+        <v>223.9136055871985</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1349.126238781879</v>
+        <v>1035.877686363847</v>
       </c>
       <c r="C32" t="n">
-        <v>910.9837659653025</v>
+        <v>1035.877686363847</v>
       </c>
       <c r="D32" t="n">
-        <v>475.073981139747</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
         <v>475.073981139747</v>
@@ -6697,16 +6697,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2176.554825902915</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>2176.554825902915</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W32" t="n">
-        <v>2176.554825902915</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X32" t="n">
-        <v>1757.412362482226</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y32" t="n">
-        <v>1349.126238781879</v>
+        <v>1035.877686363847</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
         <v>79.1492015823585</v>
@@ -6779,13 +6779,13 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
         <v>803.387703298788</v>
@@ -6818,13 +6818,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895474</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895474</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895474</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
         <v>47.20655154895474</v>
@@ -6861,49 +6861,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L34" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M34" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N34" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P34" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R34" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="S34" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="T34" t="n">
-        <v>647.4124989156879</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="U34" t="n">
-        <v>369.0258669644309</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="V34" t="n">
-        <v>82.07035883486139</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="W34" t="n">
-        <v>82.07035883486139</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895474</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895474</v>
+        <v>720.1454400009515</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>716.4307943255671</v>
+        <v>1321.127738795813</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4307943255671</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D35" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
         <v>1775.969506973259</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.54685999802</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X35" t="n">
-        <v>716.4307943255671</v>
+        <v>1729.41386249616</v>
       </c>
       <c r="Y35" t="n">
-        <v>716.4307943255671</v>
+        <v>1321.127738795813</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7007,13 +7007,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.20655154895473</v>
+        <v>132.4989642124677</v>
       </c>
       <c r="C37" t="n">
-        <v>47.20655154895473</v>
+        <v>132.4989642124677</v>
       </c>
       <c r="D37" t="n">
-        <v>47.20655154895473</v>
+        <v>132.4989642124677</v>
       </c>
       <c r="E37" t="n">
-        <v>47.20655154895473</v>
+        <v>132.4989642124677</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895473</v>
+        <v>132.4989642124677</v>
       </c>
       <c r="G37" t="n">
         <v>47.20655154895473</v>
@@ -7104,43 +7104,43 @@
         <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N37" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O37" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P37" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q37" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R37" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="S37" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="T37" t="n">
-        <v>753.4003490834032</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="U37" t="n">
-        <v>753.4003490834032</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V37" t="n">
-        <v>466.4448409538336</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W37" t="n">
-        <v>466.4448409538336</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X37" t="n">
-        <v>466.4448409538336</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.0251702679419</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1652.504392483701</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2060.790516184048</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W38" t="n">
-        <v>2060.790516184048</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X38" t="n">
-        <v>2060.790516184048</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="Y38" t="n">
-        <v>1652.504392483701</v>
+        <v>662.4043965773309</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1690.436117501185</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C40" t="n">
-        <v>1517.87440598441</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D40" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="U40" t="n">
-        <v>2360.327577447737</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V40" t="n">
-        <v>2073.372069318167</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="W40" t="n">
-        <v>1801.345664904459</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="X40" t="n">
-        <v>1801.345664904459</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="Y40" t="n">
-        <v>1690.436117501185</v>
+        <v>555.4042596134699</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586987</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>1743.700871327883</v>
       </c>
       <c r="X41" t="n">
-        <v>716.4307943255671</v>
+        <v>1324.558407907193</v>
       </c>
       <c r="Y41" t="n">
-        <v>716.4307943255671</v>
+        <v>916.2722842068466</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.2581397831116</v>
+        <v>502.9859604199225</v>
       </c>
       <c r="C43" t="n">
-        <v>103.2581397831116</v>
+        <v>502.9859604199225</v>
       </c>
       <c r="D43" t="n">
-        <v>103.2581397831116</v>
+        <v>502.9859604199225</v>
       </c>
       <c r="E43" t="n">
-        <v>103.2581397831116</v>
+        <v>333.2279566706598</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
         <v>47.20655154895474</v>
@@ -7572,49 +7572,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L43" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M43" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N43" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O43" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P43" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q43" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R43" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.233184516516</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199225</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199225</v>
       </c>
       <c r="V43" t="n">
-        <v>602.7042148827118</v>
+        <v>502.9859604199225</v>
       </c>
       <c r="W43" t="n">
-        <v>330.6778104690033</v>
+        <v>502.9859604199225</v>
       </c>
       <c r="X43" t="n">
-        <v>330.6778104690033</v>
+        <v>502.9859604199225</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.2581397831116</v>
+        <v>502.9859604199225</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.2588091910869</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="C44" t="n">
-        <v>483.1163363745102</v>
+        <v>1006.021337247617</v>
       </c>
       <c r="D44" t="n">
-        <v>47.20655154895474</v>
+        <v>570.1115524220615</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895474</v>
+        <v>570.1115524220615</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>142.2441228312693</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895474</v>
@@ -7684,16 +7684,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.54685999802</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X44" t="n">
-        <v>921.2588091910869</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y44" t="n">
-        <v>921.2588091910869</v>
+        <v>1444.163810064194</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>745.2331845165158</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C46" t="n">
-        <v>679.9277891048604</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D46" t="n">
-        <v>514.0497963063831</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E46" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7836,22 +7836,22 @@
         <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>745.2331845165158</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U46" t="n">
-        <v>745.2331845165158</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V46" t="n">
-        <v>745.2331845165158</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="W46" t="n">
-        <v>745.2331845165158</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="X46" t="n">
-        <v>745.2331845165158</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.2331845165158</v>
+        <v>47.20655154895474</v>
       </c>
     </row>
   </sheetData>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.060443726518</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>297.1322776418864</v>
       </c>
     </row>
     <row r="12">
@@ -23430,10 +23430,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>19.77446752940889</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23472,19 +23472,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>187.446764768106</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>141.9879189067922</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -23548,22 +23548,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>223.2896983938443</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23664,7 +23664,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>129.7040436574449</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>201.5049231483136</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.1939706653099</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>103.0399300069057</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>1.107030845872401</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -23949,16 +23949,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.446764768106</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>418.2776364584315</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>165.3781207952761</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>169.1674545576425</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -24189,13 +24189,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.26124425162971</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>257.4906597762492</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>174.2084005785164</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,19 +24369,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>19.77446752940889</v>
       </c>
       <c r="H25" t="n">
-        <v>74.84771084948891</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>384.8517478591365</v>
       </c>
       <c r="C26" t="n">
-        <v>420.6252664823324</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -24615,10 +24615,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>177.9480810879257</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>234.7909711565238</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>238.8063753078885</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>329.2320520468211</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>37.62746662770516</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>75.1877099533996</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -24900,13 +24900,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>305.7920161987284</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>74.54496053432754</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25128,19 +25128,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>72.00561167441072</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>208.4226679068741</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>27.71851498620555</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>53.48613377075435</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>78.65428004672889</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25365,10 +25365,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>104.927971666038</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>129.0926252284842</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>218.0124848065252</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -25605,19 +25605,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>213.9959972364924</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.3450220497918</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>380.7579191509477</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25639,13 +25639,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>53.4861337707539</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,13 +25794,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>119.4489111460461</v>
+        <v>54.87256101098009</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25876,10 +25876,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>301.4204688378261</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>256.2658684876185</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,22 +26025,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>106.1837529440684</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>75.80217538593746</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943225</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943227</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943227</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943227</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
   </sheetData>
@@ -26337,7 +26337,7 @@
         <v>125843.4334711117</v>
       </c>
       <c r="J2" t="n">
-        <v>125843.4334711117</v>
+        <v>125843.4334711118</v>
       </c>
       <c r="K2" t="n">
         <v>125843.4334711117</v>
@@ -26429,7 +26429,7 @@
         <v>414.2905444231689</v>
       </c>
       <c r="F4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="G4" t="n">
         <v>414.2905444231689</v>
@@ -26441,7 +26441,7 @@
         <v>414.2905444231689</v>
       </c>
       <c r="J4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="K4" t="n">
         <v>414.290544423169</v>
@@ -26453,13 +26453,13 @@
         <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="O4" t="n">
         <v>414.290544423169</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
@@ -26493,7 +26493,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
@@ -26505,7 +26505,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-471757.139273625</v>
+        <v>-472398.3773874003</v>
       </c>
       <c r="F6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="G6" t="n">
-        <v>79378.06171705075</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="H6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="I6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="J6" t="n">
-        <v>79378.06171705072</v>
+        <v>78736.82360327536</v>
       </c>
       <c r="K6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="L6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="M6" t="n">
-        <v>-67672.70668552069</v>
+        <v>-68313.94479929606</v>
       </c>
       <c r="N6" t="n">
-        <v>79378.06171705075</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="O6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="P6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327533</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
@@ -26813,7 +26813,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
@@ -26825,7 +26825,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699081</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,10 +33493,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33505,7 +33505,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,10 +33730,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33742,7 +33742,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,10 +33967,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -33979,7 +33979,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125713</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35807,7 +35807,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -35889,7 +35889,7 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,7 +35898,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184533</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624549</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785941</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624549</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,16 +37068,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37089,7 +37089,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37156,7 +37156,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
@@ -37165,7 +37165,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37305,22 +37305,22 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37472,7 +37472,7 @@
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -37551,13 +37551,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37782,13 +37782,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,10 +37797,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
